--- a/data_prep_code/fishing/Survey_SOU_Key.xlsx
+++ b/data_prep_code/fishing/Survey_SOU_Key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoekitchel/Documents/grad_school/Rutgers/Repositories/trawl_spatial_turnover_git/data_prep_code/fishing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B85DF9-269A-4A42-86D3-FD1581C4E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D2C0C3-F451-4A49-90FD-0AA30024A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{E7202C88-7354-9444-9291-7443846B6596}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{E7202C88-7354-9444-9291-7443846B6596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -384,6 +384,66 @@
   </si>
   <si>
     <t>Survey</t>
+  </si>
+  <si>
+    <t>BITS-1</t>
+  </si>
+  <si>
+    <t>BITS-4</t>
+  </si>
+  <si>
+    <t>NIGFS-1</t>
+  </si>
+  <si>
+    <t>NIGFS-4</t>
+  </si>
+  <si>
+    <t>NS-IBTS-1</t>
+  </si>
+  <si>
+    <t>NS-IBTS-3</t>
+  </si>
+  <si>
+    <t>GMEX-Summer</t>
+  </si>
+  <si>
+    <t>NEUS-Fall</t>
+  </si>
+  <si>
+    <t>NEUS-Spring</t>
+  </si>
+  <si>
+    <t>Nor-BTS-3</t>
+  </si>
+  <si>
+    <t>NZ-WCSI</t>
+  </si>
+  <si>
+    <t>NZ-ECSI</t>
+  </si>
+  <si>
+    <t>NZ-CHAT</t>
+  </si>
+  <si>
+    <t>S-GEORG</t>
+  </si>
+  <si>
+    <t>SCS-SUMMER</t>
+  </si>
+  <si>
+    <t>SEUS-spring</t>
+  </si>
+  <si>
+    <t>SEUS-summer</t>
+  </si>
+  <si>
+    <t>SEUS-fall</t>
+  </si>
+  <si>
+    <t>ZAF-IND</t>
+  </si>
+  <si>
+    <t>ZAF-ATL</t>
   </si>
 </sst>
 </file>
@@ -473,10 +533,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -497,7 +557,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -785,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,24 +1322,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D03098-3F3A-EF41-B174-365F564804EC}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1287,242 +1347,290 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" t="s">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
+      <c r="A9" t="s">
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="A10" t="s">
+        <v>119</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
         <v>99</v>
       </c>
     </row>
